--- a/biology/Microbiologie/Amphileptidae/Amphileptidae.xlsx
+++ b/biology/Microbiologie/Amphileptidae/Amphileptidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Amphileptidae sont une famille de Ciliés de la classe des Gymnostomatea et de l’ordre des Pleurostomatida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Amphileptiscus, dérivé du grec αμφω / ampho, « tous les deux, autour », et λεπτός / leptós, mince.
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette famille ont corps plus ou moins comprimé latéralement, à contour lancéolé, fléchi antérieurement plus ou moins dorsalement, de sorte que la face ventrale est convexe, la face dorsale allongée ou sigmoïde. La bouche est remplie de trichocystes. Le noyau a presque toujours deux à plusieurs segments, rarement simples ou non segmentés sous la forme d'une bande. La brosse dorsale est souvent difficile à observer. Le système contractile était probablement à l'origine une vacuole subterminale. Chez certaines espèces, des rangées de vacuoles contractiles indépendantes se sont développées dorsalement ou ventralement à partir de deux canaux d'alimentation. Toutes les espèces se nourrissent d'infusoires ou de rotifères ; en raison de leur digestion rapide, on les observe rarement avec leur proie encore reconnaissable à l'intérieur. Les algues observées parfois dans la cellule doivent toutes provenir d'infusoires consommées[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette famille ont corps plus ou moins comprimé latéralement, à contour lancéolé, fléchi antérieurement plus ou moins dorsalement, de sorte que la face ventrale est convexe, la face dorsale allongée ou sigmoïde. La bouche est remplie de trichocystes. Le noyau a presque toujours deux à plusieurs segments, rarement simples ou non segmentés sous la forme d'une bande. La brosse dorsale est souvent difficile à observer. Le système contractile était probablement à l'origine une vacuole subterminale. Chez certaines espèces, des rangées de vacuoles contractiles indépendantes se sont développées dorsalement ou ventralement à partir de deux canaux d'alimentation. Toutes les espèces se nourrissent d'infusoires ou de rotifères ; en raison de leur digestion rapide, on les observe rarement avec leur proie encore reconnaissable à l'intérieur. Les algues observées parfois dans la cellule doivent toutes provenir d'infusoires consommées.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette famille ont pu être observées un peu partout sur le globe[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette famille ont pu être observées un peu partout sur le globe.
 </t>
         </is>
       </c>
@@ -604,10 +622,12 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (4 janvier 2023)[2] :
-Amphileptiscus Song &amp; Bradbury, 1998 - genre type[3]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (4 janvier 2023) :
+Amphileptiscus Song &amp; Bradbury, 1998 - genre type
 Amphileptus Ehrenberg, 1830
 Apoamphileptus Lin &amp; Song, 2004
 Epiphyllum Lin, Song &amp; Warren, 2005
@@ -643,9 +663,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Amphileptidae Bütschli, 1889[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Amphileptidae Bütschli, 1889.
 </t>
         </is>
       </c>
